--- a/DATA_YONI.xlsx
+++ b/DATA_YONI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +461,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -493,17 +501,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,15 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A189"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1237,8 +1278,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>45169</v>
       </c>
       <c r="B2">
@@ -1656,8 +1697,8 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>45138</v>
       </c>
       <c r="B3">
@@ -2069,8 +2110,8 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="4" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>45107</v>
       </c>
       <c r="B4">
@@ -2485,8 +2526,8 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="5" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>45077</v>
       </c>
       <c r="B5">
@@ -2901,8 +2942,8 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="6" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>45046</v>
       </c>
       <c r="B6">
@@ -3317,8 +3358,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="7" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>45016</v>
       </c>
       <c r="B7">
@@ -3733,8 +3774,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>44985</v>
       </c>
       <c r="B8">
@@ -4149,8 +4190,8 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="9" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>44957</v>
       </c>
       <c r="B9">
@@ -4562,8 +4603,8 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="10" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>44926</v>
       </c>
       <c r="B10">
@@ -4966,8 +5007,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="11" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>44895</v>
       </c>
       <c r="B11">
@@ -5370,8 +5411,8 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="12" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>44865</v>
       </c>
       <c r="B12">
@@ -5768,8 +5809,8 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="13" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>44834</v>
       </c>
       <c r="B13">
@@ -6175,8 +6216,8 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="14" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>44804</v>
       </c>
       <c r="B14">
@@ -6585,8 +6626,8 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>44773</v>
       </c>
       <c r="B15">
@@ -6998,8 +7039,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="16" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>44742</v>
       </c>
       <c r="B16">
@@ -7408,8 +7449,8 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="17" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>44712</v>
       </c>
       <c r="B17">
@@ -7824,8 +7865,8 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="18" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>44681</v>
       </c>
       <c r="B18">
@@ -8240,8 +8281,8 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>44651</v>
       </c>
       <c r="B19">
@@ -8659,8 +8700,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>44620</v>
       </c>
       <c r="B20">
@@ -9069,8 +9110,8 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="21" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>44592</v>
       </c>
       <c r="B21">
@@ -9482,8 +9523,8 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="22" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>44561</v>
       </c>
       <c r="B22">
@@ -9895,8 +9936,8 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="23" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>44530</v>
       </c>
       <c r="B23">
@@ -10308,8 +10349,8 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="24" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>44500</v>
       </c>
       <c r="B24">
@@ -10727,8 +10768,8 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="25" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>44469</v>
       </c>
       <c r="B25">
@@ -11140,8 +11181,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>44439</v>
       </c>
       <c r="B26">
@@ -11550,8 +11591,8 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>44408</v>
       </c>
       <c r="B27">
@@ -11960,8 +12001,8 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="28" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>44377</v>
       </c>
       <c r="B28">
@@ -12367,8 +12408,8 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>44347</v>
       </c>
       <c r="B29">
@@ -12780,8 +12821,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="30" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>44316</v>
       </c>
       <c r="B30">
@@ -13193,8 +13234,8 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="31" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>44286</v>
       </c>
       <c r="B31">
@@ -13603,8 +13644,8 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="32" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>44255</v>
       </c>
       <c r="B32">
@@ -14013,8 +14054,8 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="33" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>44227</v>
       </c>
       <c r="B33">
@@ -14432,8 +14473,8 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="34" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>44196</v>
       </c>
       <c r="B34">
@@ -14842,8 +14883,8 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="35" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
         <v>44165</v>
       </c>
       <c r="B35">
@@ -15249,8 +15290,8 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="36" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>44135</v>
       </c>
       <c r="B36">
@@ -15659,8 +15700,8 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="37" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>44104</v>
       </c>
       <c r="B37">
@@ -16072,8 +16113,8 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="38" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
         <v>44074</v>
       </c>
       <c r="B38">
@@ -16482,8 +16523,8 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="39" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>44043</v>
       </c>
       <c r="B39">
@@ -16895,8 +16936,8 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="40" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>44012</v>
       </c>
       <c r="B40">
@@ -17314,8 +17355,8 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="41" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>43982</v>
       </c>
       <c r="B41">
@@ -17724,8 +17765,8 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="42" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>43951</v>
       </c>
       <c r="B42">
@@ -18128,8 +18169,8 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="43" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>43921</v>
       </c>
       <c r="B43">
@@ -18544,8 +18585,8 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
         <v>43890</v>
       </c>
       <c r="B44">
@@ -18963,8 +19004,8 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="45" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
         <v>43861</v>
       </c>
       <c r="B45">
@@ -19376,8 +19417,8 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="46" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>43830</v>
       </c>
       <c r="B46">
@@ -19786,8 +19827,8 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="47" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
         <v>43799</v>
       </c>
       <c r="B47">
@@ -20202,8 +20243,8 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="48" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
         <v>43769</v>
       </c>
       <c r="B48">
@@ -20618,8 +20659,8 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="49" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>43738</v>
       </c>
       <c r="B49">
@@ -21031,8 +21072,8 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="50" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>43708</v>
       </c>
       <c r="B50">
@@ -21447,8 +21488,8 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="51" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="51" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>43677</v>
       </c>
       <c r="B51">
@@ -21866,8 +21907,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="52" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>43646</v>
       </c>
       <c r="B52">
@@ -22282,8 +22323,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="53" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="53" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>43616</v>
       </c>
       <c r="B53">
@@ -22695,8 +22736,8 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="54" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+    <row r="54" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>43585</v>
       </c>
       <c r="B54">
@@ -23108,8 +23149,8 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="55" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+    <row r="55" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>43555</v>
       </c>
       <c r="B55">
@@ -23518,8 +23559,8 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="56" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+    <row r="56" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>43524</v>
       </c>
       <c r="B56">
@@ -23931,8 +23972,8 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="57" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>43496</v>
       </c>
       <c r="B57">
@@ -24335,8 +24376,8 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="58" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+    <row r="58" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>43465</v>
       </c>
       <c r="B58">
@@ -24742,8 +24783,8 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="59" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>43434</v>
       </c>
       <c r="B59">
@@ -25155,8 +25196,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="60" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>43404</v>
       </c>
       <c r="B60">
@@ -25571,8 +25612,8 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="61" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>43373</v>
       </c>
       <c r="B61">
@@ -25984,8 +26025,8 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="62" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>43343</v>
       </c>
       <c r="B62">
@@ -26394,8 +26435,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>43312</v>
       </c>
       <c r="B63">
@@ -26801,8 +26842,8 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="64" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+    <row r="64" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
         <v>43281</v>
       </c>
       <c r="B64">
@@ -27214,8 +27255,8 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="65" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+    <row r="65" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
         <v>43251</v>
       </c>
       <c r="B65">
@@ -27627,8 +27668,8 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="66" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+    <row r="66" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
         <v>43220</v>
       </c>
       <c r="B66">
@@ -28043,8 +28084,8 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="67" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+    <row r="67" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
         <v>43190</v>
       </c>
       <c r="B67">
@@ -28450,8 +28491,8 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
         <v>43159</v>
       </c>
       <c r="B68">
@@ -28857,8 +28898,8 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="69" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+    <row r="69" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
         <v>43131</v>
       </c>
       <c r="B69">
@@ -29273,8 +29314,8 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="70" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+    <row r="70" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
         <v>43100</v>
       </c>
       <c r="B70">
@@ -29683,8 +29724,8 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="71" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+    <row r="71" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
         <v>43069</v>
       </c>
       <c r="B71">
@@ -30099,8 +30140,8 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="72" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="72" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
         <v>43039</v>
       </c>
       <c r="B72">
@@ -30509,8 +30550,8 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="73" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
         <v>43008</v>
       </c>
       <c r="B73">
@@ -30916,8 +30957,8 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="74" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+    <row r="74" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
         <v>42978</v>
       </c>
       <c r="B74">
@@ -31329,8 +31370,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+    <row r="75" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
         <v>42947</v>
       </c>
       <c r="B75">
@@ -31736,8 +31777,8 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="76" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
         <v>42916</v>
       </c>
       <c r="B76">
@@ -32146,8 +32187,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="77" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
         <v>42886</v>
       </c>
       <c r="B77">
@@ -32550,8 +32591,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="78" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
         <v>42855</v>
       </c>
       <c r="B78">
@@ -32954,8 +32995,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
         <v>42825</v>
       </c>
       <c r="B79">
@@ -33361,8 +33402,8 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="80" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
         <v>42794</v>
       </c>
       <c r="B80">
@@ -33768,8 +33809,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
         <v>42766</v>
       </c>
       <c r="B81">
@@ -34175,8 +34216,8 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="82" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
         <v>42735</v>
       </c>
       <c r="B82">
@@ -34576,8 +34617,8 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="83" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
         <v>42704</v>
       </c>
       <c r="B83">
@@ -34980,8 +35021,8 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="84" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
         <v>42674</v>
       </c>
       <c r="B84">
@@ -35381,8 +35422,8 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="85" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
         <v>42643</v>
       </c>
       <c r="B85">
@@ -35788,8 +35829,8 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="86" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
         <v>42613</v>
       </c>
       <c r="B86">
@@ -36192,8 +36233,8 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="87" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
         <v>42582</v>
       </c>
       <c r="B87">
@@ -36593,8 +36634,8 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="88" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
         <v>42551</v>
       </c>
       <c r="B88">
@@ -36988,8 +37029,8 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="89" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
         <v>42521</v>
       </c>
       <c r="B89">
@@ -37389,8 +37430,8 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="90" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
         <v>42490</v>
       </c>
       <c r="B90">
@@ -37793,8 +37834,8 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="91" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
         <v>42460</v>
       </c>
       <c r="B91">
@@ -38191,8 +38232,8 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="92" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+    <row r="92" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
         <v>42429</v>
       </c>
       <c r="B92">
@@ -38580,8 +38621,8 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+    <row r="93" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
         <v>42400</v>
       </c>
       <c r="B93">
@@ -38972,8 +39013,8 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="94" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+    <row r="94" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
         <v>42369</v>
       </c>
       <c r="B94">
@@ -39361,8 +39402,8 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="95" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
         <v>42338</v>
       </c>
       <c r="B95">
@@ -39756,8 +39797,8 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="96" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+    <row r="96" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
         <v>42308</v>
       </c>
       <c r="B96">
@@ -40145,8 +40186,8 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="97" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+    <row r="97" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
         <v>42277</v>
       </c>
       <c r="B97">
@@ -40540,8 +40581,8 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="98" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+    <row r="98" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
         <v>42247</v>
       </c>
       <c r="B98">
@@ -40941,8 +40982,8 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="99" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+    <row r="99" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
         <v>42216</v>
       </c>
       <c r="B99">
@@ -41339,8 +41380,8 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="100" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+    <row r="100" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
         <v>42185</v>
       </c>
       <c r="B100">
@@ -41740,8 +41781,8 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+    <row r="101" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
         <v>42155</v>
       </c>
       <c r="B101">
@@ -42132,8 +42173,8 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="102" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+    <row r="102" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
         <v>42124</v>
       </c>
       <c r="B102">
@@ -42527,8 +42568,8 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="103" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+    <row r="103" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
         <v>42094</v>
       </c>
       <c r="B103">
@@ -42916,8 +42957,8 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="104" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+    <row r="104" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
         <v>42063</v>
       </c>
       <c r="B104">
@@ -43308,8 +43349,8 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+    <row r="105" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
         <v>42035</v>
       </c>
       <c r="B105">
@@ -43691,8 +43732,8 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="106" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+    <row r="106" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
         <v>42004</v>
       </c>
       <c r="B106">
@@ -44086,8 +44127,8 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="107" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+    <row r="107" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
         <v>41973</v>
       </c>
       <c r="B107">
@@ -44478,8 +44519,8 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="108" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+    <row r="108" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
         <v>41943</v>
       </c>
       <c r="B108">
@@ -44873,8 +44914,8 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="109" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+    <row r="109" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
         <v>41912</v>
       </c>
       <c r="B109">
@@ -45262,8 +45303,8 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="110" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+    <row r="110" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
         <v>41882</v>
       </c>
       <c r="B110">
@@ -45657,8 +45698,8 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="111" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+    <row r="111" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
         <v>41851</v>
       </c>
       <c r="B111">
@@ -46046,8 +46087,8 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+    <row r="112" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
         <v>41820</v>
       </c>
       <c r="B112">
@@ -46432,8 +46473,8 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+    <row r="113" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
         <v>41790</v>
       </c>
       <c r="B113">
@@ -46824,8 +46865,8 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+    <row r="114" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
         <v>41759</v>
       </c>
       <c r="B114">
@@ -47213,8 +47254,8 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+    <row r="115" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
         <v>41729</v>
       </c>
       <c r="B115">
@@ -47599,8 +47640,8 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+    <row r="116" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
         <v>41698</v>
       </c>
       <c r="B116">
@@ -47979,8 +48020,8 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="117" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+    <row r="117" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
         <v>41670</v>
       </c>
       <c r="B117">
@@ -48368,8 +48409,8 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="118" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+    <row r="118" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
         <v>41639</v>
       </c>
       <c r="B118">
@@ -48760,8 +48801,8 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="119" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+    <row r="119" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
         <v>41608</v>
       </c>
       <c r="B119">
@@ -49149,8 +49190,8 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="120" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+    <row r="120" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
         <v>41578</v>
       </c>
       <c r="B120">
@@ -49535,8 +49576,8 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="121" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+    <row r="121" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
         <v>41547</v>
       </c>
       <c r="B121">
@@ -49927,8 +49968,8 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="122" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+    <row r="122" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
         <v>41517</v>
       </c>
       <c r="B122">
@@ -50310,8 +50351,8 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="123" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+    <row r="123" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
         <v>41486</v>
       </c>
       <c r="B123">
@@ -50690,8 +50731,8 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="124" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+    <row r="124" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
         <v>41455</v>
       </c>
       <c r="B124">
@@ -51061,8 +51102,8 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="125" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+    <row r="125" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
         <v>41425</v>
       </c>
       <c r="B125">
@@ -51447,8 +51488,8 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="126" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+    <row r="126" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
         <v>41394</v>
       </c>
       <c r="B126">
@@ -51833,8 +51874,8 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="127" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+    <row r="127" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
         <v>41364</v>
       </c>
       <c r="B127">
@@ -52219,8 +52260,8 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="128" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+    <row r="128" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
         <v>41333</v>
       </c>
       <c r="B128">
@@ -52602,8 +52643,8 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="129" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+    <row r="129" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
         <v>41305</v>
       </c>
       <c r="B129">
@@ -52982,8 +53023,8 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="130" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+    <row r="130" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
         <v>41274</v>
       </c>
       <c r="B130">
@@ -53362,8 +53403,8 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="131" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+    <row r="131" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
         <v>41243</v>
       </c>
       <c r="B131">
@@ -53742,8 +53783,8 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="132" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+    <row r="132" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
         <v>41213</v>
       </c>
       <c r="B132">
@@ -54122,8 +54163,8 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="133" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+    <row r="133" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
         <v>41182</v>
       </c>
       <c r="B133">
@@ -54505,8 +54546,8 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="134" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+    <row r="134" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
         <v>41152</v>
       </c>
       <c r="B134">
@@ -54891,8 +54932,8 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="135" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+    <row r="135" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
         <v>41121</v>
       </c>
       <c r="B135">
@@ -55268,8 +55309,8 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="136" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+    <row r="136" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
         <v>41090</v>
       </c>
       <c r="B136">
@@ -55648,8 +55689,8 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="137" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+    <row r="137" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
         <v>41060</v>
       </c>
       <c r="B137">
@@ -56028,8 +56069,8 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="138" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+    <row r="138" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
         <v>41029</v>
       </c>
       <c r="B138">
@@ -56405,8 +56446,8 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="139" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+    <row r="139" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
         <v>40999</v>
       </c>
       <c r="B139">
@@ -56788,8 +56829,8 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="140" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+    <row r="140" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
         <v>40968</v>
       </c>
       <c r="B140">
@@ -57162,8 +57203,8 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="141" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+    <row r="141" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
         <v>40939</v>
       </c>
       <c r="B141">
@@ -57548,8 +57589,8 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="142" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+    <row r="142" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
         <v>40908</v>
       </c>
       <c r="B142">
@@ -57934,8 +57975,8 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="143" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+    <row r="143" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
         <v>40877</v>
       </c>
       <c r="B143">
@@ -58311,8 +58352,8 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="144" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+    <row r="144" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
         <v>40847</v>
       </c>
       <c r="B144">
@@ -58682,8 +58723,8 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+    <row r="145" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
         <v>40816</v>
       </c>
       <c r="B145">
@@ -59065,8 +59106,8 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="146" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+    <row r="146" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
         <v>40786</v>
       </c>
       <c r="B146">
@@ -59448,8 +59489,8 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="147" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+    <row r="147" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
         <v>40755</v>
       </c>
       <c r="B147">
@@ -59831,8 +59872,8 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="148" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+    <row r="148" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
         <v>40724</v>
       </c>
       <c r="B148">
@@ -60214,8 +60255,8 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="149" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+    <row r="149" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
         <v>40694</v>
       </c>
       <c r="B149">
@@ -60591,8 +60632,8 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="150" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+    <row r="150" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
         <v>40663</v>
       </c>
       <c r="B150">
@@ -60968,8 +61009,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="151" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+    <row r="151" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
         <v>40633</v>
       </c>
       <c r="B151">
@@ -61345,8 +61386,8 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="152" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+    <row r="152" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
         <v>40602</v>
       </c>
       <c r="B152">
@@ -61725,8 +61766,8 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="153" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+    <row r="153" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
         <v>40574</v>
       </c>
       <c r="B153">
@@ -62102,8 +62143,8 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="154" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+    <row r="154" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
         <v>40543</v>
       </c>
       <c r="B154">
@@ -62485,8 +62526,8 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="155" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+    <row r="155" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
         <v>40512</v>
       </c>
       <c r="B155">
@@ -62862,8 +62903,8 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="156" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+    <row r="156" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
         <v>40482</v>
       </c>
       <c r="B156">
@@ -63239,8 +63280,8 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="157" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+    <row r="157" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
         <v>40451</v>
       </c>
       <c r="B157">
@@ -63613,8 +63654,8 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="158" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+    <row r="158" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
         <v>40421</v>
       </c>
       <c r="B158">
@@ -63990,8 +64031,8 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+    <row r="159" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
         <v>40390</v>
       </c>
       <c r="B159">
@@ -64364,8 +64405,8 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="160" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+    <row r="160" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
         <v>40359</v>
       </c>
       <c r="B160">
@@ -64738,8 +64779,8 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="161" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+    <row r="161" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
         <v>40329</v>
       </c>
       <c r="B161">
@@ -65115,8 +65156,8 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+    <row r="162" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
         <v>40298</v>
       </c>
       <c r="B162">
@@ -65492,8 +65533,8 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="163" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+    <row r="163" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
         <v>40268</v>
       </c>
       <c r="B163">
@@ -65866,8 +65907,8 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="164" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+    <row r="164" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
         <v>40237</v>
       </c>
       <c r="B164">
@@ -66240,8 +66281,8 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="165" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+    <row r="165" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
         <v>40209</v>
       </c>
       <c r="B165">
@@ -66617,8 +66658,8 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="166" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+    <row r="166" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
         <v>40178</v>
       </c>
       <c r="B166">
@@ -66997,8 +67038,8 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="167" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+    <row r="167" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
         <v>40147</v>
       </c>
       <c r="B167">
@@ -67368,8 +67409,8 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="168" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+    <row r="168" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
         <v>40117</v>
       </c>
       <c r="B168">
@@ -67748,8 +67789,8 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="169" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+    <row r="169" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
         <v>40086</v>
       </c>
       <c r="B169">
@@ -68125,8 +68166,8 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="170" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+    <row r="170" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
         <v>40056</v>
       </c>
       <c r="B170">
@@ -68493,8 +68534,8 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="171" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+    <row r="171" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
         <v>40025</v>
       </c>
       <c r="B171">
@@ -68855,8 +68896,8 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="172" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+    <row r="172" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
         <v>39994</v>
       </c>
       <c r="B172">
@@ -69223,8 +69264,8 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="173" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+    <row r="173" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
         <v>39964</v>
       </c>
       <c r="B173">
@@ -69591,8 +69632,8 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="174" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+    <row r="174" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
         <v>39933</v>
       </c>
       <c r="B174">
@@ -69944,8 +69985,8 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="175" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+    <row r="175" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
         <v>39903</v>
       </c>
       <c r="B175">
@@ -70303,8 +70344,8 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="176" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+    <row r="176" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
         <v>39872</v>
       </c>
       <c r="B176">
@@ -70662,8 +70703,8 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="177" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+    <row r="177" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
         <v>39844</v>
       </c>
       <c r="B177">
@@ -71012,8 +71053,8 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="178" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+    <row r="178" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
         <v>39813</v>
       </c>
       <c r="B178">
@@ -71371,8 +71412,8 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="179" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+    <row r="179" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
         <v>39782</v>
       </c>
       <c r="B179">
@@ -71733,8 +71774,8 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="180" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+    <row r="180" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
         <v>39752</v>
       </c>
       <c r="B180">
@@ -72095,8 +72136,8 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="181" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+    <row r="181" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
         <v>39721</v>
       </c>
       <c r="B181">
@@ -72460,8 +72501,8 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="182" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+    <row r="182" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
         <v>39691</v>
       </c>
       <c r="B182">
@@ -72822,8 +72863,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="183" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+    <row r="183" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
         <v>39660</v>
       </c>
       <c r="B183">
@@ -73181,8 +73222,8 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+    <row r="184" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
         <v>39629</v>
       </c>
       <c r="B184">
@@ -73546,8 +73587,8 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="185" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+    <row r="185" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
         <v>39599</v>
       </c>
       <c r="B185">
@@ -73914,8 +73955,8 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="186" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+    <row r="186" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
         <v>39568</v>
       </c>
       <c r="B186">
@@ -74279,8 +74320,8 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="187" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+    <row r="187" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
         <v>39538</v>
       </c>
       <c r="B187">
@@ -74629,8 +74670,8 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="188" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+    <row r="188" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
         <v>39507</v>
       </c>
       <c r="B188">
@@ -74982,8 +75023,8 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="189" spans="1:139" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+    <row r="189" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
         <v>39478</v>
       </c>
       <c r="B189">
